--- a/Examples/test_data/Custom_Template.xlsx
+++ b/Examples/test_data/Custom_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\atthaboon\Documents\SourceCode\Github\CoreRPAHive\Examples\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\atthaboon\Documents\GitHub\robotframework-ExcelDataDriver\Examples\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520CD6C8-6BEE-4E3E-B6FF-951376C8C097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DEB6FA-DDB1-4438-AA84-9834FC911046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -270,33 +270,6 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -321,7 +294,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -363,6 +336,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -648,7 +648,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,222 +674,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="6" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="9"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="10" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="12" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="14" t="s">
+      <c r="P3" s="21"/>
+      <c r="Q3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="17" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="26" t="s">
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="18">
         <v>10000000001</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="11">
         <v>795</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="12">
         <f>I4*(1-L4)</f>
         <v>465</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="12">
         <f>J4/1.07</f>
         <v>434.57943925233644</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="13">
         <f>(I4-M4)/I4</f>
         <v>0.41509433962264153</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="9">
         <v>465</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="14">
         <f>M4*(1-P4)</f>
         <v>325.5</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="12">
         <f>N4/1.07</f>
         <v>304.20560747663552</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="13">
         <v>0.3</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="15">
         <f>I4-M4</f>
         <v>330</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="16">
         <f>(I4-M4)/I4</f>
         <v>0.41509433962264153</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="26" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="18">
         <v>10000000002</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="10">
         <v>800</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="12">
         <v>600</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="12">
         <f>J5/1.07</f>
         <v>560.74766355140184</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="13">
         <f>(I5-M5)/I5</f>
         <v>0.25</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="10">
         <v>600</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="14">
         <f>M5*(1-P5)</f>
         <v>420</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="12">
         <f>N5/1.07</f>
         <v>392.52336448598129</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="13">
         <v>0.3</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="15">
         <f>I5-M5</f>
         <v>200</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="16">
         <f>(I5-M5)/I5</f>
         <v>0.25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:R2"/>
@@ -902,12 +907,10 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J4:L4 K5:L5 N4:O4 Q4:R5 N5:O5" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>